--- a/InputData/indst/CESTR/Capital Eqpt Sales Tax Rate.xlsx
+++ b/InputData/indst/CESTR/Capital Eqpt Sales Tax Rate.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\indst\CESTR\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="45" windowWidth="23955" windowHeight="11310"/>
   </bookViews>
@@ -38,9 +43,6 @@
     <t>Note:</t>
   </si>
   <si>
-    <t>Tax Rate</t>
-  </si>
-  <si>
     <t>CESTR Capital Eqpt Sales Tax Rate</t>
   </si>
   <si>
@@ -48,12 +50,15 @@
   </si>
   <si>
     <t>Capital Eqpt</t>
+  </si>
+  <si>
+    <t>Tax Rate (dimensionless)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -118,6 +123,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -165,7 +173,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -200,7 +208,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -413,17 +421,17 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="51.85546875" customWidth="1"/>
+    <col min="2" max="2" width="51.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -431,34 +439,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -476,22 +484,24 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.73046875" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>6.8000000000000005E-2</v>
